--- a/single-material/bc-load.xlsx
+++ b/single-material/bc-load.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\University\MSc Thesis\topology-optimization\single-material\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB966642-81E6-4ED9-916F-77FEF65C6E78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7286BB45-7535-4CC1-BEE1-86F58EDB8DA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2D86FB45-E629-4292-A468-1496ADE41B90}"/>
   </bookViews>
@@ -426,7 +426,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -469,7 +469,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" s="2">
         <v>0</v>
@@ -485,39 +485,69 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" s="2">
         <v>1</v>
       </c>
       <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="B4" s="2">
         <v>1</v>
       </c>
-      <c r="G3" s="2">
-        <v>0</v>
-      </c>
-      <c r="H3" s="2">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
+      <c r="C4" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
+        <v>-1</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
+      <c r="A5" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1</v>
+      </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2">
+        <v>-1</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
